--- a/temp/info/material.xlsx
+++ b/temp/info/material.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="material" displayName="material" ref="A1:H2" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="material" displayName="material" ref="A1:H3" headerRowCount="1">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Nome do Material"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,48 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>off</t>
         </is>
